--- a/src/main/resources/perfils.xlsx
+++ b/src/main/resources/perfils.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
   <si>
     <t>catar.inasilvana</t>
   </si>
@@ -125,6 +125,33 @@
     <t>2022-02-03</t>
   </si>
   <si>
+    <t>RodriguesLorenaBarreto</t>
+  </si>
+  <si>
+    <t>Senhalorena</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>Barreto</t>
+  </si>
+  <si>
+    <t>meu celular</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Cadastrado</t>
+  </si>
+  <si>
     <t>oliveiranevesamanda</t>
   </si>
   <si>
@@ -176,9 +203,6 @@
     <t>2022-02-12</t>
   </si>
   <si>
-    <t>Cadastrado</t>
-  </si>
-  <si>
     <t>souzadanielrodrigue</t>
   </si>
   <si>
@@ -191,9 +215,6 @@
     <t>Souza Rodrigues</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>souzadanielrodrigue@hotmail.com</t>
   </si>
   <si>
@@ -302,24 +323,6 @@
     <t>MartinsSaraGama@hotmail.com</t>
   </si>
   <si>
-    <t>RodriguesLorenaBarreto</t>
-  </si>
-  <si>
-    <t>Senhalorena</t>
-  </si>
-  <si>
-    <t>Lorena</t>
-  </si>
-  <si>
-    <t>Barreto</t>
-  </si>
-  <si>
-    <t>meu celular</t>
-  </si>
-  <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
     <t>AnchietaDiegoBarros</t>
   </si>
   <si>
@@ -519,9 +522,6 @@
   </si>
   <si>
     <t>Araujo Monteiro</t>
-  </si>
-  <si>
-    <t>2022-02-21</t>
   </si>
 </sst>
 </file>
@@ -822,49 +822,53 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7"/>
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
+        <v>43</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7" t="n">
         <v>55.0</v>
       </c>
       <c r="K7" t="n">
-        <v>242.0</v>
+        <v>45.0</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
       </c>
-      <c r="M7"/>
+      <c r="M7" t="s">
+        <v>44</v>
+      </c>
       <c r="N7" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -873,14 +877,14 @@
         <v>55.0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.0</v>
+        <v>242.0</v>
       </c>
       <c r="L8" t="s">
         <v>6</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
@@ -888,61 +892,61 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
       <c r="J9" t="n">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="K9" t="n">
-        <v>49.0</v>
+        <v>236.0</v>
       </c>
       <c r="L9" t="s">
         <v>6</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="G10"/>
       <c r="H10"/>
@@ -951,37 +955,37 @@
         <v>52.0</v>
       </c>
       <c r="K10" t="n">
-        <v>267.0</v>
+        <v>49.0</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -990,172 +994,170 @@
         <v>52.0</v>
       </c>
       <c r="K11" t="n">
-        <v>78.0</v>
+        <v>267.0</v>
       </c>
       <c r="L11" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M11"/>
       <c r="N11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="O11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" t="n">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="K12" t="n">
-        <v>755.0</v>
+        <v>78.0</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="O12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
       <c r="J13" t="n">
-        <v>48.0</v>
+        <v>51.0</v>
       </c>
       <c r="K13" t="n">
-        <v>18.0</v>
+        <v>755.0</v>
       </c>
       <c r="L13" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="s">
         <v>76</v>
       </c>
       <c r="O13" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
         <v>78</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>79</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>80</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>81</v>
       </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="K14" t="n">
-        <v>200.0</v>
+        <v>18.0</v>
       </c>
       <c r="L14" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
+      <c r="I15"/>
       <c r="J15" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K15" t="n">
-        <v>556.0</v>
+        <v>200.0</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O15" t="s">
         <v>16</v>
@@ -1163,16 +1165,16 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
@@ -1182,19 +1184,21 @@
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16"/>
+      <c r="I16" t="s">
+        <v>5</v>
+      </c>
       <c r="J16" t="n">
         <v>45.0</v>
       </c>
       <c r="K16" t="n">
-        <v>247.0</v>
+        <v>556.0</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O16" t="s">
         <v>16</v>
@@ -1202,97 +1206,97 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17"/>
       <c r="J17" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="K17" t="n">
-        <v>14.0</v>
+        <v>247.0</v>
       </c>
       <c r="L17" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O17" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="n">
-        <v>37.0</v>
+        <v>38.0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.0</v>
+        <v>14.0</v>
       </c>
       <c r="L18" t="s">
         <v>6</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
         <v>5</v>
@@ -1307,34 +1311,34 @@
         <v>18.0</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
@@ -1350,27 +1354,27 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O20" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
         <v>5</v>
@@ -1389,30 +1393,30 @@
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O21" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -1428,30 +1432,30 @@
       </c>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -1463,34 +1467,34 @@
         <v>20.0</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
@@ -1509,27 +1513,27 @@
         <v>8</v>
       </c>
       <c r="O24" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -1541,34 +1545,34 @@
         <v>11.0</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O25" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1580,34 +1584,34 @@
         <v>0.0</v>
       </c>
       <c r="L26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1619,34 +1623,34 @@
         <v>15.0</v>
       </c>
       <c r="L27" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O27" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G28"/>
       <c r="H28"/>
@@ -1658,34 +1662,34 @@
         <v>11.0</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O28" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -1697,34 +1701,34 @@
         <v>18.0</v>
       </c>
       <c r="L29" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1736,40 +1740,44 @@
         <v>0.0</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F31" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s">
-        <v>169</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31"/>
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="I31" t="s">
+        <v>43</v>
+      </c>
       <c r="J31" t="n">
         <v>0.0</v>
       </c>
@@ -1783,10 +1791,10 @@
         <v>7</v>
       </c>
       <c r="N31" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O31" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/perfils.xlsx
+++ b/src/main/resources/perfils.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
   <si>
     <t>catar.inasilvana</t>
   </si>
@@ -137,192 +137,204 @@
     <t>Barreto</t>
   </si>
   <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-22</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>oliveiranevesamanda</t>
+  </si>
+  <si>
+    <t>GRqQcGXU2x6qKT6</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Oliveira Neves</t>
+  </si>
+  <si>
+    <t>2022-01-22</t>
+  </si>
+  <si>
+    <t>aliveiraamandaneves@hotmail.com</t>
+  </si>
+  <si>
+    <t>limasilva_mariana</t>
+  </si>
+  <si>
+    <t>7XBNPz46527ijkW</t>
+  </si>
+  <si>
+    <t>Mariana</t>
+  </si>
+  <si>
+    <t>Lima Silva</t>
+  </si>
+  <si>
+    <t>2022-01-21</t>
+  </si>
+  <si>
+    <t>limamarianasilva@hotmail.com</t>
+  </si>
+  <si>
+    <t>pradomalufortaleza</t>
+  </si>
+  <si>
+    <t>SenhaMalu</t>
+  </si>
+  <si>
+    <t>Malu</t>
+  </si>
+  <si>
+    <t>Prado</t>
+  </si>
+  <si>
+    <t>2022-02-12</t>
+  </si>
+  <si>
+    <t>2022-02-20</t>
+  </si>
+  <si>
+    <t>souzadanielrodrigue</t>
+  </si>
+  <si>
+    <t>X3wbnBa6xqa7rBc</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Souza Rodrigues</t>
+  </si>
+  <si>
+    <t>souzadanielrodrigue@hotmail.com</t>
+  </si>
+  <si>
+    <t>negreirosbiancauribe</t>
+  </si>
+  <si>
+    <t>SenhaBianca</t>
+  </si>
+  <si>
+    <t>Bianca</t>
+  </si>
+  <si>
+    <t>Negreiro</t>
+  </si>
+  <si>
+    <t>2022-02-10</t>
+  </si>
+  <si>
+    <t>mauriciosilvanocosta</t>
+  </si>
+  <si>
+    <t>Mauricio</t>
+  </si>
+  <si>
+    <t>Silvano Costa</t>
+  </si>
+  <si>
+    <t>mauriciosicostantino@hotmail.com</t>
+  </si>
+  <si>
+    <t>vianavanessaauth</t>
+  </si>
+  <si>
+    <t>SenhaVanessa</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Viana</t>
+  </si>
+  <si>
     <t>meu celular</t>
   </si>
   <si>
-    <t>2022-02-14</t>
-  </si>
-  <si>
-    <t>2022-02-21</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>Cadastrado</t>
-  </si>
-  <si>
-    <t>oliveiranevesamanda</t>
-  </si>
-  <si>
-    <t>GRqQcGXU2x6qKT6</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Oliveira Neves</t>
-  </si>
-  <si>
-    <t>2022-01-22</t>
-  </si>
-  <si>
-    <t>aliveiraamandaneves@hotmail.com</t>
-  </si>
-  <si>
-    <t>limasilva_mariana</t>
-  </si>
-  <si>
-    <t>7XBNPz46527ijkW</t>
-  </si>
-  <si>
-    <t>Mariana</t>
-  </si>
-  <si>
-    <t>Lima Silva</t>
-  </si>
-  <si>
-    <t>2022-01-21</t>
-  </si>
-  <si>
-    <t>limamarianasilva@hotmail.com</t>
-  </si>
-  <si>
-    <t>pradomalufortaleza</t>
-  </si>
-  <si>
-    <t>SenhaManu ou malu</t>
-  </si>
-  <si>
-    <t>Malu</t>
-  </si>
-  <si>
-    <t>Prado</t>
-  </si>
-  <si>
-    <t>2022-02-12</t>
-  </si>
-  <si>
-    <t>souzadanielrodrigue</t>
-  </si>
-  <si>
-    <t>X3wbnBa6xqa7rBc</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Souza Rodrigues</t>
-  </si>
-  <si>
-    <t>souzadanielrodrigue@hotmail.com</t>
-  </si>
-  <si>
-    <t>negreirosbiancauribe</t>
-  </si>
-  <si>
-    <t>SenhaBianca</t>
-  </si>
-  <si>
-    <t>Bianca</t>
-  </si>
-  <si>
-    <t>Negreiro</t>
-  </si>
-  <si>
-    <t>2022-02-10</t>
-  </si>
-  <si>
-    <t>mauriciosilvanocosta</t>
-  </si>
-  <si>
-    <t>Mauricio</t>
-  </si>
-  <si>
-    <t>Silvano Costa</t>
-  </si>
-  <si>
-    <t>mauriciosicostantino@hotmail.com</t>
-  </si>
-  <si>
-    <t>vianavanessaauth</t>
-  </si>
-  <si>
-    <t>SenhaVanessa</t>
-  </si>
-  <si>
-    <t>Vanessa</t>
-  </si>
-  <si>
-    <t>Viana</t>
+    <t>2022-02-06</t>
+  </si>
+  <si>
+    <t>verturaroberto@hotmail.com</t>
+  </si>
+  <si>
+    <t>Criado</t>
+  </si>
+  <si>
+    <t>almeidabrunsantos</t>
+  </si>
+  <si>
+    <t>jBXsgc4bbgjRvbV</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Almeida Santos</t>
+  </si>
+  <si>
+    <t>almeidabrunsantos@hotmail.com</t>
+  </si>
+  <si>
+    <t>aristelsilvs</t>
+  </si>
+  <si>
+    <t>Aristel</t>
+  </si>
+  <si>
+    <t>Silvsa</t>
+  </si>
+  <si>
+    <t>aristelamaralsilva@gmail.com</t>
+  </si>
+  <si>
+    <t>ferreiraalexmatiasmatias</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>ferreiraalexmatias@hotmail.com</t>
+  </si>
+  <si>
+    <t>SerraAdrianaPascal</t>
+  </si>
+  <si>
+    <t>SenhaAdriana</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Pascal</t>
   </si>
   <si>
     <t>?</t>
   </si>
   <si>
-    <t>2022-02-06</t>
-  </si>
-  <si>
-    <t>verturaroberto@hotmail.com</t>
-  </si>
-  <si>
-    <t>Criado</t>
-  </si>
-  <si>
-    <t>almeidabrunsantos</t>
-  </si>
-  <si>
-    <t>jBXsgc4bbgjRvbV</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Almeida Santos</t>
-  </si>
-  <si>
-    <t>almeidabrunsantos@hotmail.com</t>
-  </si>
-  <si>
-    <t>aristelsilvs</t>
-  </si>
-  <si>
-    <t>Aristel</t>
-  </si>
-  <si>
-    <t>Silvsa</t>
-  </si>
-  <si>
-    <t>aristelamaralsilva@gmail.com</t>
-  </si>
-  <si>
-    <t>ferreiraalexmatiasmatias</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Ferreira</t>
-  </si>
-  <si>
-    <t>ferreiraalexmatias@hotmail.com</t>
-  </si>
-  <si>
-    <t>SerraAdrianaPascal</t>
-  </si>
-  <si>
-    <t>SenhaAdriana</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Pascal</t>
-  </si>
-  <si>
     <t>MartinsSaraGama@hotmail.com</t>
   </si>
   <si>
+    <t>FerroTatianeBarreto</t>
+  </si>
+  <si>
+    <t>SenhaTatiana</t>
+  </si>
+  <si>
+    <t>Tatiane</t>
+  </si>
+  <si>
     <t>AnchietaDiegoBarros</t>
   </si>
   <si>
@@ -401,15 +413,6 @@
     <t>Ventura</t>
   </si>
   <si>
-    <t>FerroTatianeBarreto</t>
-  </si>
-  <si>
-    <t>SenhaTatiana</t>
-  </si>
-  <si>
-    <t>Tatiane</t>
-  </si>
-  <si>
     <t>rpereiracastro</t>
   </si>
   <si>
@@ -510,18 +513,6 @@
   </si>
   <si>
     <t>BotelhoDiegoPedrosa@hotmail.com</t>
-  </si>
-  <si>
-    <t>MonteiroEduardaAraujo</t>
-  </si>
-  <si>
-    <t>SenhaEduarda</t>
-  </si>
-  <si>
-    <t>Eduarda</t>
-  </si>
-  <si>
-    <t>Araujo Monteiro</t>
   </si>
 </sst>
 </file>
@@ -566,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -822,16 +813,18 @@
         <v>40</v>
       </c>
       <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7"/>
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
       <c r="J7" t="n">
         <v>55.0</v>
       </c>
@@ -848,27 +841,27 @@
         <v>8</v>
       </c>
       <c r="O7" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>49</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8"/>
       <c r="H8"/>
@@ -884,7 +877,7 @@
       </c>
       <c r="M8"/>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O8" t="s">
         <v>16</v>
@@ -892,22 +885,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>53</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>54</v>
-      </c>
-      <c r="D9" t="s">
-        <v>55</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9"/>
       <c r="H9"/>
@@ -923,7 +916,7 @@
       </c>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
         <v>16</v>
@@ -931,26 +924,30 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>61</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
       </c>
       <c r="F10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" t="s">
         <v>62</v>
       </c>
-      <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
+      <c r="I10" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" t="n">
         <v>52.0</v>
       </c>
@@ -960,12 +957,14 @@
       <c r="L10" t="s">
         <v>6</v>
       </c>
-      <c r="M10"/>
+      <c r="M10" t="s">
+        <v>7</v>
+      </c>
       <c r="N10" t="s">
         <v>8</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -985,7 +984,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11"/>
       <c r="H11"/>
@@ -1116,7 +1115,9 @@
       <c r="L14" t="s">
         <v>6</v>
       </c>
-      <c r="M14"/>
+      <c r="M14" t="s">
+        <v>7</v>
+      </c>
       <c r="N14" t="s">
         <v>83</v>
       </c>
@@ -1141,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15"/>
       <c r="H15"/>
@@ -1257,7 +1258,7 @@
         <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -1276,7 +1277,7 @@
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O18" t="s">
         <v>84</v>
@@ -1284,77 +1285,83 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19"/>
+        <v>41</v>
+      </c>
+      <c r="G19" t="s">
+        <v>43</v>
+      </c>
       <c r="H19"/>
-      <c r="I19"/>
+      <c r="I19" t="s">
+        <v>43</v>
+      </c>
       <c r="J19" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="K19" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="L19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19"/>
+        <v>6</v>
+      </c>
+      <c r="M19" t="s">
+        <v>7</v>
+      </c>
       <c r="N19" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="O19" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>109</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="D20" t="s">
-        <v>111</v>
-      </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F20" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="K20" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="L20" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O20" t="s">
         <v>84</v>
@@ -1362,22 +1369,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" t="s">
+      <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
         <v>116</v>
-      </c>
-      <c r="D21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" t="s">
-        <v>5</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -1386,14 +1393,14 @@
         <v>26.0</v>
       </c>
       <c r="K21" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O21" t="s">
         <v>84</v>
@@ -1401,38 +1408,38 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>120</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>121</v>
       </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22"/>
       <c r="J22" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="K22" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="L22" t="s">
         <v>6</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O22" t="s">
         <v>84</v>
@@ -1440,38 +1447,38 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" t="s">
         <v>125</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>126</v>
       </c>
-      <c r="C23" t="s">
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
         <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" t="s">
-        <v>56</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="K23" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="O23" t="s">
         <v>84</v>
@@ -1488,29 +1495,29 @@
         <v>131</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="K24" t="n">
-        <v>23.0</v>
+        <v>20.0</v>
       </c>
       <c r="L24" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="O24" t="s">
         <v>84</v>
@@ -1518,22 +1525,22 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G25"/>
       <c r="H25"/>
@@ -1549,7 +1556,7 @@
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O25" t="s">
         <v>84</v>
@@ -1557,22 +1564,22 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
@@ -1588,30 +1595,30 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1627,7 +1634,7 @@
       </c>
       <c r="M27"/>
       <c r="N27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O27" t="s">
         <v>84</v>
@@ -1635,25 +1642,27 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G28"/>
-      <c r="H28"/>
+      <c r="H28" t="s">
+        <v>42</v>
+      </c>
       <c r="I28"/>
       <c r="J28" t="n">
         <v>7.0</v>
@@ -1666,27 +1675,27 @@
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O28" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E29" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
         <v>82</v>
@@ -1705,7 +1714,7 @@
       </c>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O29" t="s">
         <v>84</v>
@@ -1713,22 +1722,22 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="F30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1744,57 +1753,10 @@
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" t="s">
-        <v>168</v>
-      </c>
-      <c r="D31" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s">
-        <v>43</v>
-      </c>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N31" t="s">
-        <v>160</v>
-      </c>
-      <c r="O31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/perfils.xlsx
+++ b/src/main/resources/perfils.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="169">
   <si>
     <t>catar.inasilvana</t>
   </si>
@@ -245,6 +245,30 @@
     <t>mauriciosicostantino@hotmail.com</t>
   </si>
   <si>
+    <t>SerraAdrianaPascal</t>
+  </si>
+  <si>
+    <t>SenhaAdriana</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Pascal</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>2022-02-24</t>
+  </si>
+  <si>
+    <t>MartinsSaraGama@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cadastrado</t>
+  </si>
+  <si>
     <t>vianavanessaauth</t>
   </si>
   <si>
@@ -257,97 +281,79 @@
     <t>Viana</t>
   </si>
   <si>
-    <t>meu celular</t>
-  </si>
-  <si>
     <t>2022-02-06</t>
   </si>
   <si>
+    <t>2022-02-23</t>
+  </si>
+  <si>
     <t>verturaroberto@hotmail.com</t>
   </si>
   <si>
+    <t>almeidabrunsantos</t>
+  </si>
+  <si>
+    <t>jBXsgc4bbgjRvbV</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Almeida Santos</t>
+  </si>
+  <si>
+    <t>almeidabrunsantos@hotmail.com</t>
+  </si>
+  <si>
+    <t>aristelsilvs</t>
+  </si>
+  <si>
+    <t>Aristel</t>
+  </si>
+  <si>
+    <t>Silvsa</t>
+  </si>
+  <si>
+    <t>aristelamaralsilva@gmail.com</t>
+  </si>
+  <si>
+    <t>ferreiraalexmatiasmatias</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>ferreiraalexmatias@hotmail.com</t>
+  </si>
+  <si>
+    <t>FerroTatianeBarreto</t>
+  </si>
+  <si>
+    <t>SenhaTatiana</t>
+  </si>
+  <si>
+    <t>Tatiane</t>
+  </si>
+  <si>
+    <t>AnchietaDiegoBarros</t>
+  </si>
+  <si>
+    <t>SenhaDiego</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Barros Anchieta</t>
+  </si>
+  <si>
+    <t>UribeOliviaMoreira@hotmail.com</t>
+  </si>
+  <si>
     <t>Criado</t>
-  </si>
-  <si>
-    <t>almeidabrunsantos</t>
-  </si>
-  <si>
-    <t>jBXsgc4bbgjRvbV</t>
-  </si>
-  <si>
-    <t>Bruno</t>
-  </si>
-  <si>
-    <t>Almeida Santos</t>
-  </si>
-  <si>
-    <t>almeidabrunsantos@hotmail.com</t>
-  </si>
-  <si>
-    <t>aristelsilvs</t>
-  </si>
-  <si>
-    <t>Aristel</t>
-  </si>
-  <si>
-    <t>Silvsa</t>
-  </si>
-  <si>
-    <t>aristelamaralsilva@gmail.com</t>
-  </si>
-  <si>
-    <t>ferreiraalexmatiasmatias</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Ferreira</t>
-  </si>
-  <si>
-    <t>ferreiraalexmatias@hotmail.com</t>
-  </si>
-  <si>
-    <t>SerraAdrianaPascal</t>
-  </si>
-  <si>
-    <t>SenhaAdriana</t>
-  </si>
-  <si>
-    <t>Adriana</t>
-  </si>
-  <si>
-    <t>Pascal</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>MartinsSaraGama@hotmail.com</t>
-  </si>
-  <si>
-    <t>FerroTatianeBarreto</t>
-  </si>
-  <si>
-    <t>SenhaTatiana</t>
-  </si>
-  <si>
-    <t>Tatiane</t>
-  </si>
-  <si>
-    <t>AnchietaDiegoBarros</t>
-  </si>
-  <si>
-    <t>SenhaDiego</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Barros Anchieta</t>
-  </si>
-  <si>
-    <t>UribeOliviaMoreira@hotmail.com</t>
   </si>
   <si>
     <t>borsoirebecachaves</t>
@@ -1101,22 +1107,24 @@
         <v>81</v>
       </c>
       <c r="F14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
         <v>82</v>
       </c>
-      <c r="G14"/>
       <c r="H14"/>
       <c r="I14"/>
       <c r="J14" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="K14" t="n">
-        <v>18.0</v>
+        <v>31.0</v>
       </c>
       <c r="L14" t="s">
         <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
         <v>83</v>
@@ -1142,64 +1150,68 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15"/>
+        <v>89</v>
+      </c>
+      <c r="G15" t="s">
+        <v>90</v>
+      </c>
       <c r="H15"/>
-      <c r="I15"/>
+      <c r="I15" t="s">
+        <v>90</v>
+      </c>
       <c r="J15" t="n">
-        <v>46.0</v>
+        <v>48.0</v>
       </c>
       <c r="K15" t="n">
-        <v>200.0</v>
+        <v>18.0</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15"/>
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>7</v>
+      </c>
       <c r="N15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E16" t="s">
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
+      <c r="I16"/>
       <c r="J16" t="n">
-        <v>45.0</v>
+        <v>46.0</v>
       </c>
       <c r="K16" t="n">
-        <v>556.0</v>
+        <v>200.0</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O16" t="s">
         <v>16</v>
@@ -1207,16 +1219,16 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1226,19 +1238,21 @@
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17"/>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
       <c r="J17" t="n">
         <v>45.0</v>
       </c>
       <c r="K17" t="n">
-        <v>247.0</v>
+        <v>556.0</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O17" t="s">
         <v>16</v>
@@ -1246,52 +1260,52 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18" t="n">
-        <v>38.0</v>
+        <v>45.0</v>
       </c>
       <c r="K18" t="n">
-        <v>14.0</v>
+        <v>247.0</v>
       </c>
       <c r="L18" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O18" t="s">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
@@ -1330,19 +1344,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
         <v>5</v>
@@ -1361,30 +1375,30 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O20" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G21"/>
       <c r="H21"/>
@@ -1400,27 +1414,27 @@
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -1439,30 +1453,30 @@
       </c>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="O22" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
@@ -1478,27 +1492,27 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="O23" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
@@ -1517,27 +1531,27 @@
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -1556,27 +1570,27 @@
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F26" t="s">
         <v>55</v>
@@ -1595,30 +1609,30 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="O26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1634,30 +1648,30 @@
       </c>
       <c r="M27"/>
       <c r="N27" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O27" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
@@ -1675,30 +1689,30 @@
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G29"/>
       <c r="H29"/>
@@ -1714,30 +1728,30 @@
       </c>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="O29" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1753,10 +1767,10 @@
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="O30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/perfils.xlsx
+++ b/src/main/resources/perfils.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="170">
   <si>
     <t>catar.inasilvana</t>
   </si>
@@ -329,6 +329,27 @@
     <t>ferreiraalexmatias@hotmail.com</t>
   </si>
   <si>
+    <t>bermudesbrasiliense</t>
+  </si>
+  <si>
+    <t>2Qi3rHu9Tx6eeFQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tatiane </t>
+  </si>
+  <si>
+    <t>Bermudes Brasiliense</t>
+  </si>
+  <si>
+    <t>2022-01-28</t>
+  </si>
+  <si>
+    <t>BrasilienseTatianeBermudes@hotmail.com</t>
+  </si>
+  <si>
+    <t>Criado</t>
+  </si>
+  <si>
     <t>FerroTatianeBarreto</t>
   </si>
   <si>
@@ -350,12 +371,12 @@
     <t>Barros Anchieta</t>
   </si>
   <si>
+    <t>2022-02-25</t>
+  </si>
+  <si>
     <t>UribeOliviaMoreira@hotmail.com</t>
   </si>
   <si>
-    <t>Criado</t>
-  </si>
-  <si>
     <t>borsoirebecachaves</t>
   </si>
   <si>
@@ -389,24 +410,6 @@
     <t>VianaTatianeBrito@hotmail.com</t>
   </si>
   <si>
-    <t>bermudesbrasiliense</t>
-  </si>
-  <si>
-    <t>2Qi3rHu9Tx6eeFQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tatiane </t>
-  </si>
-  <si>
-    <t>Bermudes Brasiliense</t>
-  </si>
-  <si>
-    <t>2022-01-28</t>
-  </si>
-  <si>
-    <t>BrasilienseTatianeBermudes@hotmail.com</t>
-  </si>
-  <si>
     <t>verturaroberto</t>
   </si>
   <si>
@@ -437,6 +440,21 @@
     <t>pereirarodrigocastro@hotmail.com</t>
   </si>
   <si>
+    <t>fariasneis</t>
+  </si>
+  <si>
+    <t>s32ibGxFv9JsRuZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enzo </t>
+  </si>
+  <si>
+    <t>Farias Neis</t>
+  </si>
+  <si>
+    <t>NeisEnzoFarias@hotmail.com</t>
+  </si>
+  <si>
     <t>leonardo.pereirabarros</t>
   </si>
   <si>
@@ -456,21 +474,6 @@
   </si>
   <si>
     <t>Bloqueado</t>
-  </si>
-  <si>
-    <t>fariasneis</t>
-  </si>
-  <si>
-    <t>s32ibGxFv9JsRuZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzo </t>
-  </si>
-  <si>
-    <t>Farias Neis</t>
-  </si>
-  <si>
-    <t>NeisEnzoFarias@hotmail.com</t>
   </si>
   <si>
     <t>franciscogamavilhena</t>
@@ -1308,136 +1311,138 @@
         <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" t="s">
-        <v>43</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" t="s">
-        <v>43</v>
-      </c>
+      <c r="I19"/>
       <c r="J19" t="n">
-        <v>32.0</v>
+        <v>35.0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.0</v>
+        <v>16.0</v>
       </c>
       <c r="L19" t="s">
         <v>6</v>
       </c>
-      <c r="M19" t="s">
-        <v>7</v>
-      </c>
+      <c r="M19"/>
       <c r="N19" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="O19" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20"/>
+        <v>41</v>
+      </c>
+      <c r="G20" t="s">
+        <v>43</v>
+      </c>
       <c r="H20"/>
-      <c r="I20"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
       <c r="J20" t="n">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="K20" t="n">
-        <v>18.0</v>
+        <v>45.0</v>
       </c>
       <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20"/>
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>7</v>
+      </c>
       <c r="N20" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E21" t="s">
         <v>81</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
-      </c>
-      <c r="G21"/>
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
       <c r="H21"/>
       <c r="I21"/>
       <c r="J21" t="n">
-        <v>26.0</v>
+        <v>29.0</v>
       </c>
       <c r="K21" t="n">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="L21" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="G22"/>
       <c r="H22"/>
@@ -1446,70 +1451,70 @@
         <v>26.0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
       <c r="L22" t="s">
         <v>6</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23"/>
       <c r="J23" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="K23" t="n">
-        <v>16.0</v>
+        <v>6.0</v>
       </c>
       <c r="L23" t="s">
         <v>6</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E24" t="s">
         <v>81</v>
@@ -1521,7 +1526,7 @@
       <c r="H24"/>
       <c r="I24"/>
       <c r="J24" t="n">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="K24" t="n">
         <v>20.0</v>
@@ -1534,24 +1539,24 @@
         <v>91</v>
       </c>
       <c r="O24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -1560,7 +1565,7 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="n">
-        <v>14.0</v>
+        <v>24.0</v>
       </c>
       <c r="K25" t="n">
         <v>11.0</v>
@@ -1570,39 +1575,39 @@
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>
@@ -1612,27 +1617,27 @@
         <v>146</v>
       </c>
       <c r="O26" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
         <v>148</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>149</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>150</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>151</v>
       </c>
-      <c r="E27" t="s">
-        <v>81</v>
-      </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
@@ -1641,7 +1646,7 @@
         <v>14.0</v>
       </c>
       <c r="K27" t="n">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="L27" t="s">
         <v>44</v>
@@ -1651,27 +1656,27 @@
         <v>152</v>
       </c>
       <c r="O27" t="s">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
         <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G28"/>
       <c r="H28" t="s">
@@ -1689,24 +1694,24 @@
       </c>
       <c r="M28"/>
       <c r="N28" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O28" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E29" t="s">
         <v>81</v>
@@ -1728,30 +1733,30 @@
       </c>
       <c r="M29"/>
       <c r="N29" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B30" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E30" t="s">
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
@@ -1767,10 +1772,10 @@
       </c>
       <c r="M30"/>
       <c r="N30" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O30" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/perfils.xlsx
+++ b/src/main/resources/perfils.xlsx
@@ -410,6 +410,24 @@
     <t>VianaTatianeBrito@hotmail.com</t>
   </si>
   <si>
+    <t>rpereiracastro</t>
+  </si>
+  <si>
+    <t>K58eF4rCVWurr8g</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Castro Pereira</t>
+  </si>
+  <si>
+    <t>Celular2</t>
+  </si>
+  <si>
+    <t>pereirarodrigocastro@hotmail.com</t>
+  </si>
+  <si>
     <t>verturaroberto</t>
   </si>
   <si>
@@ -420,24 +438,6 @@
   </si>
   <si>
     <t>Ventura</t>
-  </si>
-  <si>
-    <t>rpereiracastro</t>
-  </si>
-  <si>
-    <t>K58eF4rCVWurr8g</t>
-  </si>
-  <si>
-    <t>Rodrigo</t>
-  </si>
-  <si>
-    <t>Castro Pereira</t>
-  </si>
-  <si>
-    <t>Celular2</t>
-  </si>
-  <si>
-    <t>pereirarodrigocastro@hotmail.com</t>
   </si>
   <si>
     <t>fariasneis</t>
@@ -1517,7 +1517,7 @@
         <v>135</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
@@ -1529,14 +1529,14 @@
         <v>25.0</v>
       </c>
       <c r="K24" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="L24" t="s">
         <v>44</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="O24" t="s">
         <v>111</v>
@@ -1544,19 +1544,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="F25" t="s">
         <v>55</v>
@@ -1565,17 +1565,17 @@
       <c r="H25"/>
       <c r="I25"/>
       <c r="J25" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="K25" t="n">
-        <v>11.0</v>
+        <v>20.0</v>
       </c>
       <c r="L25" t="s">
         <v>44</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="O25" t="s">
         <v>111</v>
@@ -1604,10 +1604,10 @@
       <c r="H26"/>
       <c r="I26"/>
       <c r="J26" t="n">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="K26" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="L26" t="s">
         <v>44</v>

--- a/src/main/resources/perfils.xlsx
+++ b/src/main/resources/perfils.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="173">
   <si>
     <t>catar.inasilvana</t>
   </si>
@@ -263,12 +263,33 @@
     <t>2022-02-24</t>
   </si>
   <si>
+    <t>2022-03-03</t>
+  </si>
+  <si>
     <t>MartinsSaraGama@hotmail.com</t>
   </si>
   <si>
     <t>Cadastrado</t>
   </si>
   <si>
+    <t>vianatatianebrito</t>
+  </si>
+  <si>
+    <t>Senhainsta</t>
+  </si>
+  <si>
+    <t>Tatiene</t>
+  </si>
+  <si>
+    <t>Brito</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>VianaTatianeBrito@hotmail.com</t>
+  </si>
+  <si>
     <t>vianavanessaauth</t>
   </si>
   <si>
@@ -392,22 +413,13 @@
     <t>2022-02-01</t>
   </si>
   <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
     <t>BorsoiRebecaChaves@hotmail.com</t>
   </si>
   <si>
-    <t>vianatatianebrito</t>
-  </si>
-  <si>
-    <t>Senhainsta</t>
-  </si>
-  <si>
-    <t>Tatiene</t>
-  </si>
-  <si>
-    <t>Brito</t>
-  </si>
-  <si>
-    <t>VianaTatianeBrito@hotmail.com</t>
+    <t>Bloqueado</t>
   </si>
   <si>
     <t>rpereiracastro</t>
@@ -455,6 +467,21 @@
     <t>NeisEnzoFarias@hotmail.com</t>
   </si>
   <si>
+    <t>torquatopaulomessias</t>
+  </si>
+  <si>
+    <t>jdh2WbvqC2W5Pqd</t>
+  </si>
+  <si>
+    <t>Paulo</t>
+  </si>
+  <si>
+    <t>Messias</t>
+  </si>
+  <si>
+    <t>TorquatoPauloMessias@hotmail.com</t>
+  </si>
+  <si>
     <t>leonardo.pereirabarros</t>
   </si>
   <si>
@@ -473,9 +500,6 @@
     <t>pereirabarrosleonardo@hotmail.com</t>
   </si>
   <si>
-    <t>Bloqueado</t>
-  </si>
-  <si>
     <t>franciscogamavilhena</t>
   </si>
   <si>
@@ -492,21 +516,6 @@
   </si>
   <si>
     <t>vilhenafranciscogama@hotmail.com</t>
-  </si>
-  <si>
-    <t>torquatopaulomessias</t>
-  </si>
-  <si>
-    <t>jdh2WbvqC2W5Pqd</t>
-  </si>
-  <si>
-    <t>Paulo</t>
-  </si>
-  <si>
-    <t>Messias</t>
-  </si>
-  <si>
-    <t>TorquatoPauloMessias@hotmail.com</t>
   </si>
   <si>
     <t>pedrosabotelho</t>
@@ -566,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -594,22 +603,23 @@
       <c r="G1"/>
       <c r="H1"/>
       <c r="I1"/>
-      <c r="J1" t="n">
+      <c r="J1"/>
+      <c r="K1" t="n">
         <v>70.0</v>
       </c>
-      <c r="K1" t="n">
+      <c r="L1" t="n">
         <v>69.0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -635,20 +645,21 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" t="n">
+      <c r="J2"/>
+      <c r="K2" t="n">
         <v>64.0</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>275.0</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>6</v>
       </c>
-      <c r="M2"/>
-      <c r="N2" t="s">
+      <c r="N2"/>
+      <c r="O2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -674,20 +685,21 @@
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
+      <c r="J3"/>
+      <c r="K3" t="n">
         <v>58.0</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>672.0</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
-      <c r="M3"/>
-      <c r="N3" t="s">
+      <c r="N3"/>
+      <c r="O3" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -713,20 +725,21 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" t="n">
+      <c r="J4"/>
+      <c r="K4" t="n">
         <v>58.0</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>253.0</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>6</v>
       </c>
-      <c r="M4"/>
-      <c r="N4" t="s">
+      <c r="N4"/>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -752,20 +765,21 @@
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" t="n">
+      <c r="J5"/>
+      <c r="K5" t="n">
         <v>57.0</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>259.0</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>6</v>
       </c>
-      <c r="M5"/>
-      <c r="N5" t="s">
+      <c r="N5"/>
+      <c r="O5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -791,20 +805,21 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" t="n">
+      <c r="J6"/>
+      <c r="K6" t="n">
         <v>57.0</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>84.0</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="M6"/>
-      <c r="N6" t="s">
+      <c r="N6"/>
+      <c r="O6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -834,22 +849,23 @@
       <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7"/>
+      <c r="K7" t="n">
         <v>55.0</v>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>45.0</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>6</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>8</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>9</v>
       </c>
     </row>
@@ -875,20 +891,21 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" t="n">
+      <c r="J8"/>
+      <c r="K8" t="n">
         <v>55.0</v>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>242.0</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>6</v>
       </c>
-      <c r="M8"/>
-      <c r="N8" t="s">
+      <c r="N8"/>
+      <c r="O8" t="s">
         <v>50</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -914,20 +931,21 @@
       <c r="G9"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" t="n">
+      <c r="J9"/>
+      <c r="K9" t="n">
         <v>55.0</v>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>236.0</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>6</v>
       </c>
-      <c r="M9"/>
-      <c r="N9" t="s">
+      <c r="N9"/>
+      <c r="O9" t="s">
         <v>56</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -957,22 +975,23 @@
       <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10"/>
+      <c r="K10" t="n">
         <v>52.0</v>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>49.0</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>7</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>8</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>9</v>
       </c>
     </row>
@@ -998,20 +1017,21 @@
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" t="n">
+      <c r="J11"/>
+      <c r="K11" t="n">
         <v>52.0</v>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>267.0</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>44</v>
       </c>
-      <c r="M11"/>
-      <c r="N11" t="s">
+      <c r="N11"/>
+      <c r="O11" t="s">
         <v>67</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1037,20 +1057,21 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" t="n">
+      <c r="J12"/>
+      <c r="K12" t="n">
         <v>52.0</v>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>78.0</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>6</v>
       </c>
-      <c r="M12"/>
-      <c r="N12" t="s">
+      <c r="N12"/>
+      <c r="O12" t="s">
         <v>8</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1076,20 +1097,21 @@
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" t="n">
+      <c r="J13"/>
+      <c r="K13" t="n">
         <v>51.0</v>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>755.0</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>44</v>
       </c>
-      <c r="M13"/>
-      <c r="N13" t="s">
+      <c r="N13"/>
+      <c r="O13" t="s">
         <v>76</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1117,68 +1139,68 @@
       </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="n">
         <v>50.0</v>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>31.0</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>6</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>44</v>
-      </c>
-      <c r="N14" t="s">
-        <v>83</v>
       </c>
       <c r="O14" t="s">
         <v>84</v>
       </c>
+      <c r="P14" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
         <v>90</v>
       </c>
       <c r="H15"/>
-      <c r="I15" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" t="n">
-        <v>48.0</v>
-      </c>
+      <c r="I15"/>
+      <c r="J15"/>
       <c r="K15" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L15" t="s">
+        <v>49.0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="M15" t="s">
         <v>6</v>
       </c>
-      <c r="M15" t="s">
-        <v>7</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="N15"/>
+      <c r="O15" t="s">
         <v>91</v>
       </c>
-      <c r="O15" t="s">
-        <v>9</v>
+      <c r="P15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -1198,81 +1220,87 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16"/>
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>97</v>
+      </c>
       <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" t="n">
-        <v>46.0</v>
-      </c>
+      <c r="I16" t="s">
+        <v>97</v>
+      </c>
+      <c r="J16"/>
       <c r="K16" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="L16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16"/>
+        <v>48.0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>6</v>
+      </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="O16" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="P16" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>45.0</v>
-      </c>
+      <c r="I17"/>
+      <c r="J17"/>
       <c r="K17" t="n">
-        <v>556.0</v>
-      </c>
-      <c r="L17" t="s">
+        <v>46.0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="M17" t="s">
         <v>44</v>
       </c>
-      <c r="M17"/>
-      <c r="N17" t="s">
-        <v>100</v>
-      </c>
+      <c r="N17"/>
       <c r="O17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1282,61 +1310,65 @@
       </c>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" t="n">
+      <c r="I18" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18"/>
+      <c r="K18" t="n">
         <v>45.0</v>
       </c>
-      <c r="K18" t="n">
-        <v>247.0</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="L18" t="n">
+        <v>556.0</v>
+      </c>
+      <c r="M18" t="s">
         <v>44</v>
       </c>
-      <c r="M18"/>
-      <c r="N18" t="s">
-        <v>104</v>
-      </c>
+      <c r="N18"/>
       <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>14</v>
       </c>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" t="n">
-        <v>35.0</v>
-      </c>
+      <c r="J19"/>
       <c r="K19" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>6</v>
-      </c>
-      <c r="M19"/>
-      <c r="N19" t="s">
-        <v>110</v>
-      </c>
+        <v>45.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>247.0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N19"/>
       <c r="O19" t="s">
         <v>111</v>
+      </c>
+      <c r="P19" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20">
@@ -1350,210 +1382,219 @@
         <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>43</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>32.0</v>
-      </c>
+      <c r="I20"/>
+      <c r="J20"/>
       <c r="K20" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="L20" t="s">
+        <v>35.0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="M20" t="s">
         <v>6</v>
       </c>
-      <c r="M20" t="s">
-        <v>7</v>
-      </c>
-      <c r="N20" t="s">
-        <v>8</v>
-      </c>
+      <c r="N20"/>
       <c r="O20" t="s">
-        <v>9</v>
+        <v>117</v>
+      </c>
+      <c r="P20" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="G21" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" t="n">
-        <v>29.0</v>
-      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21"/>
       <c r="K21" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>44</v>
-      </c>
-      <c r="M21"/>
+        <v>32.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
       <c r="N21" t="s">
-        <v>120</v>
+        <v>7</v>
       </c>
       <c r="O21" t="s">
-        <v>84</v>
+        <v>8</v>
+      </c>
+      <c r="P21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E22" t="s">
         <v>81</v>
       </c>
       <c r="F22" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22"/>
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>126</v>
+      </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" t="n">
-        <v>26.0</v>
-      </c>
+      <c r="J22"/>
       <c r="K22" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>6</v>
-      </c>
-      <c r="M22"/>
-      <c r="N22" t="s">
-        <v>126</v>
-      </c>
+        <v>29.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+      <c r="N22"/>
       <c r="O22" t="s">
-        <v>111</v>
+        <v>127</v>
+      </c>
+      <c r="P22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="G23"/>
-      <c r="H23"/>
+      <c r="H23" t="s">
+        <v>133</v>
+      </c>
       <c r="I23"/>
-      <c r="J23" t="n">
+      <c r="J23"/>
+      <c r="K23" t="n">
         <v>26.0</v>
       </c>
-      <c r="K23" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="L23" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M23" t="s">
         <v>6</v>
       </c>
-      <c r="M23"/>
-      <c r="N23" t="s">
-        <v>131</v>
-      </c>
+      <c r="N23"/>
       <c r="O23" t="s">
-        <v>111</v>
+        <v>134</v>
+      </c>
+      <c r="P23" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C24" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F24" t="s">
         <v>55</v>
       </c>
-      <c r="G24"/>
+      <c r="G24" t="s">
+        <v>90</v>
+      </c>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" t="n">
+      <c r="J24"/>
+      <c r="K24" t="n">
         <v>25.0</v>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>15.0</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>44</v>
       </c>
-      <c r="M24"/>
-      <c r="N24" t="s">
-        <v>137</v>
-      </c>
+      <c r="N24"/>
       <c r="O24" t="s">
-        <v>111</v>
+        <v>141</v>
+      </c>
+      <c r="P24" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
         <v>81</v>
@@ -1561,221 +1602,231 @@
       <c r="F25" t="s">
         <v>55</v>
       </c>
-      <c r="G25"/>
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" t="n">
+      <c r="J25"/>
+      <c r="K25" t="n">
         <v>25.0</v>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>20.0</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>44</v>
       </c>
-      <c r="M25"/>
-      <c r="N25" t="s">
-        <v>91</v>
-      </c>
+      <c r="N25"/>
       <c r="O25" t="s">
-        <v>111</v>
+        <v>98</v>
+      </c>
+      <c r="P25" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D26" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26"/>
+        <v>116</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="n">
+      <c r="J26"/>
+      <c r="K26" t="n">
         <v>17.0</v>
       </c>
-      <c r="K26" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="L26" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="M26" t="s">
         <v>44</v>
       </c>
-      <c r="M26"/>
-      <c r="N26" t="s">
-        <v>146</v>
-      </c>
+      <c r="N26"/>
       <c r="O26" t="s">
-        <v>111</v>
+        <v>150</v>
+      </c>
+      <c r="P26" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B27" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
-      <c r="J27" t="n">
-        <v>14.0</v>
-      </c>
+      <c r="J27"/>
       <c r="K27" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L27" t="s">
+        <v>15.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="M27" t="s">
         <v>44</v>
       </c>
-      <c r="M27"/>
-      <c r="N27" t="s">
-        <v>152</v>
-      </c>
+      <c r="N27"/>
       <c r="O27" t="s">
-        <v>153</v>
+        <v>155</v>
+      </c>
+      <c r="P27" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D28" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="F28" t="s">
-        <v>158</v>
+        <v>55</v>
       </c>
       <c r="G28"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
+      <c r="H28"/>
       <c r="I28"/>
-      <c r="J28" t="n">
-        <v>7.0</v>
-      </c>
+      <c r="J28"/>
       <c r="K28" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="L28" t="s">
+        <v>14.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M28" t="s">
         <v>44</v>
       </c>
-      <c r="M28"/>
-      <c r="N28" t="s">
-        <v>159</v>
-      </c>
+      <c r="N28"/>
       <c r="O28" t="s">
-        <v>153</v>
+        <v>161</v>
+      </c>
+      <c r="P28" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D29" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E29" t="s">
         <v>81</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>166</v>
       </c>
       <c r="G29"/>
-      <c r="H29"/>
+      <c r="H29" t="s">
+        <v>42</v>
+      </c>
       <c r="I29"/>
-      <c r="J29" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="J29"/>
       <c r="K29" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="L29" t="s">
+        <v>7.0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="M29" t="s">
         <v>44</v>
       </c>
-      <c r="M29"/>
-      <c r="N29" t="s">
-        <v>164</v>
-      </c>
+      <c r="N29"/>
       <c r="O29" t="s">
-        <v>111</v>
+        <v>167</v>
+      </c>
+      <c r="P29" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E30" t="s">
         <v>81</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
-      <c r="J30" t="n">
-        <v>0.0</v>
-      </c>
+      <c r="J30"/>
       <c r="K30" t="n">
         <v>0.0</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L30" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M30" t="s">
         <v>44</v>
       </c>
-      <c r="M30"/>
-      <c r="N30" t="s">
-        <v>169</v>
-      </c>
+      <c r="N30"/>
       <c r="O30" t="s">
-        <v>153</v>
+        <v>172</v>
+      </c>
+      <c r="P30" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
